--- a/source_data_from_legendre_lapointe/Excel_data.xlsx
+++ b/source_data_from_legendre_lapointe/Excel_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilvissing/PycharmProjects/whiskey/Scotch_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="17300" windowWidth="25220" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,10 +1008,10 @@
   <dimension ref="A1:CG113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:AB3"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
@@ -1067,7 +1062,7 @@
     <col min="84" max="84" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:85" s="1" customFormat="1">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1274,7 @@
       <c r="BW1" s="2"/>
       <c r="BX1" s="2"/>
     </row>
-    <row r="2" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:85" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:85">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:85">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2049,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:85">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2307,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:85">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2565,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:85">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:85">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -3081,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:85">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -3339,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:85">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -3597,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:85">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -3855,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:85">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -4113,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:85">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -4371,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:85">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -4629,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:85">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -4887,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:85">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:85">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:85">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -5661,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:85">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -5919,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:85">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -6177,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:85" ht="12" customHeight="1">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6435,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:85">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6693,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:85">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -6951,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:85">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -7209,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:85">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -7467,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:85">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -7725,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:85">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -7983,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:85">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -8241,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:85">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -8499,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:85">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -8757,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:85">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -9015,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:85">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -9273,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:85">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -9531,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:85">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -9789,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:85">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -10047,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:85">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -10305,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:85">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -10563,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:85">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -10821,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:85">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -11079,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:85">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -11337,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:85">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -11595,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:85">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -11853,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:85">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -12111,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:85">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -12369,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:85">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -12627,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:85">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -12885,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:85">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -13143,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:85">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -13401,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:85">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -13659,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:85">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -13917,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:85">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -14175,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:85">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -14433,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:85">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -14691,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:85">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -14949,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:85">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -15207,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:85">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -15465,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:85">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -15723,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:85">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -15981,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:85">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -16239,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:85">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -16497,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:85">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -16755,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:85">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -17013,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:85">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -17271,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:85">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -17529,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:85">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -17787,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:85">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -18045,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:85">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -18303,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:85">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -18561,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:85">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -18819,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:85">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -19077,7 +19072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:85">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -19335,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:85">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -19593,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:85">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -19851,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:85">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -20109,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:85">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -20367,7 +20362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:85">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -20625,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:85">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -20883,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:85">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -21141,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:85">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -21399,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:85">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -21657,7 +21652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:85">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -21915,7 +21910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:85">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -22173,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:85">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -22431,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:85">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -22689,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:85">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -22947,7 +22942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:85">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -23205,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:85">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -23463,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:85">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -23721,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:85">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -23979,7 +23974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:85">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -24237,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:85">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -24495,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:85">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -24753,7 +24748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:85">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -25011,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:85">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -25269,7 +25264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:85">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -25527,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:85">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -25785,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:85">
       <c r="A97" t="s">
         <v>182</v>
       </c>
@@ -26043,7 +26038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:85">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -26301,7 +26296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:85">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -26559,7 +26554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:85">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -26817,7 +26812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:85">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -27074,7 +27069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:85">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -27332,7 +27327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:85">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -27590,7 +27585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:85">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -27848,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:85">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -28106,7 +28101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:85">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -28364,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:85">
       <c r="A107" t="s">
         <v>194</v>
       </c>
@@ -28622,7 +28617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:85">
       <c r="A108" t="s">
         <v>196</v>
       </c>
@@ -28880,7 +28875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:85">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -29138,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:85">
       <c r="A110" t="s">
         <v>198</v>
       </c>
@@ -29396,7 +29391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:85">
       <c r="A111" t="s">
         <v>199</v>
       </c>
@@ -29654,7 +29649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:85" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:85">
       <c r="C113" s="3">
         <f t="shared" ref="C113:AH113" si="5">SUM(C3:C111)</f>
         <v>8</v>
@@ -29973,5 +29968,10 @@
     <oddHeader>&amp;f</oddHeader>
     <oddFooter>Page &amp;p</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>